--- a/inst/.temp/money.xlsx
+++ b/inst/.temp/money.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1723" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="758">
   <si>
     <t>name</t>
   </si>
@@ -770,6 +770,9 @@
   </si>
   <si>
     <t>Faeroe Islands</t>
+  </si>
+  <si>
+    <t>Faroese</t>
   </si>
   <si>
     <t>Falkland Islands</t>
@@ -2288,7 +2291,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2303,6 +2306,11 @@
       <sz val="11.0"/>
       <color rgb="FF202122"/>
       <name val="Sans-serif"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2348,7 +2356,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -3123,7 +3131,7 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -5043,25 +5051,28 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
+      <c r="M62" s="4" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1">
         <v>58.0</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G63" s="1">
         <v>-1.0</v>
@@ -5080,21 +5091,24 @@
       </c>
       <c r="L63" s="1">
         <v>1.0</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>36</v>
@@ -5106,7 +5120,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -5114,7 +5128,7 @@
         <v>59.0</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>33</v>
@@ -5147,7 +5161,7 @@
         <v>1.0</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -5155,7 +5169,7 @@
         <v>60.0</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>33</v>
@@ -5196,7 +5210,7 @@
         <v>62.0</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>158</v>
@@ -5237,19 +5251,19 @@
         <v>63.0</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G68" s="1">
         <v>-1.0</v>
@@ -5278,19 +5292,19 @@
         <v>64.0</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G69" s="1">
         <v>-1.0</v>
@@ -5311,7 +5325,7 @@
         <v>1.0</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -5319,7 +5333,7 @@
         <v>65.0</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>33</v>
@@ -5360,19 +5374,19 @@
         <v>66.0</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G71" s="1">
         <v>-1.0</v>
@@ -5401,19 +5415,19 @@
         <v>67.0</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G72" s="1">
         <v>-1.0</v>
@@ -5442,7 +5456,7 @@
         <v>68.0</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>33</v>
@@ -5475,7 +5489,7 @@
         <v>1.0</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
@@ -5483,7 +5497,7 @@
         <v>69.0</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>45</v>
@@ -5524,16 +5538,16 @@
         <v>70.0</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>52</v>
@@ -5565,16 +5579,16 @@
         <v>71.0</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>105</v>
@@ -5606,7 +5620,7 @@
         <v>72.0</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>102</v>
@@ -5647,16 +5661,16 @@
         <v>73.0</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>36</v>
@@ -5688,16 +5702,16 @@
         <v>74.0</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>105</v>
@@ -5721,7 +5735,7 @@
         <v>1.0</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -5729,16 +5743,16 @@
         <v>76.0</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>52</v>
@@ -5770,16 +5784,16 @@
         <v>77.0</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>36</v>
@@ -5803,7 +5817,7 @@
         <v>1.0</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
@@ -5811,19 +5825,19 @@
         <v>78.0</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G82" s="1">
         <v>-1.0</v>
@@ -5844,7 +5858,7 @@
         <v>1.0</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
@@ -5852,19 +5866,19 @@
         <v>79.0</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G83" s="1">
         <v>-1.0</v>
@@ -5885,7 +5899,7 @@
         <v>1.0</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
@@ -5893,19 +5907,19 @@
         <v>80.0</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G84" s="1">
         <v>-1.0</v>
@@ -5926,7 +5940,7 @@
         <v>1.0</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
@@ -5934,16 +5948,16 @@
         <v>81.0</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>136</v>
@@ -5967,7 +5981,7 @@
         <v>1.0</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
@@ -5975,19 +5989,19 @@
         <v>82.0</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G86" s="1">
         <v>-1.0</v>
@@ -6008,7 +6022,7 @@
         <v>1.0</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1">
@@ -6016,16 +6030,16 @@
         <v>83.0</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>76</v>
@@ -6049,7 +6063,7 @@
         <v>1.0</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
@@ -6057,7 +6071,7 @@
         <v>84.0</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>33</v>
@@ -6090,7 +6104,7 @@
         <v>1.0</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
@@ -6098,19 +6112,19 @@
         <v>85.0</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G89" s="1">
         <v>-1.0</v>
@@ -6131,7 +6145,7 @@
         <v>1.0</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
@@ -6139,19 +6153,19 @@
         <v>86.0</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G90" s="1">
         <v>-1.0</v>
@@ -6172,7 +6186,7 @@
         <v>1.0</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
@@ -6180,7 +6194,7 @@
         <v>87.0</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>33</v>
@@ -6213,7 +6227,7 @@
         <v>1.0</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
@@ -6221,16 +6235,16 @@
         <v>88.0</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>36</v>
@@ -6262,16 +6276,16 @@
         <v>89.0</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>136</v>
@@ -6295,7 +6309,7 @@
         <v>1.0</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -6303,16 +6317,16 @@
         <v>90.0</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>231</v>
@@ -6344,19 +6358,19 @@
         <v>91.0</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G95" s="1">
         <v>-1.0</v>
@@ -6377,7 +6391,7 @@
         <v>1.0</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -6385,16 +6399,16 @@
         <v>92.0</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>36</v>
@@ -6418,13 +6432,13 @@
         <v>1.0</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>33</v>
@@ -6445,7 +6459,7 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -6453,16 +6467,16 @@
         <v>93.0</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>76</v>
@@ -6494,19 +6508,19 @@
         <v>94.0</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G99" s="1">
         <v>-1.0</v>
@@ -6527,7 +6541,7 @@
         <v>1.0</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
@@ -6535,19 +6549,19 @@
         <v>95.0</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G100" s="1">
         <v>-1.0</v>
@@ -6568,7 +6582,7 @@
         <v>1.0</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
@@ -6576,7 +6590,7 @@
         <v>96.0</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>33</v>
@@ -6609,7 +6623,7 @@
         <v>1.0</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
@@ -6617,16 +6631,16 @@
         <v>97.0</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>231</v>
@@ -6658,19 +6672,19 @@
         <v>98.0</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G103" s="1">
         <v>-1.0</v>
@@ -6691,7 +6705,7 @@
         <v>1.0</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
@@ -6699,16 +6713,16 @@
         <v>99.0</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>36</v>
@@ -6740,19 +6754,19 @@
         <v>100.0</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G105" s="1">
         <v>-1.0</v>
@@ -6781,19 +6795,19 @@
         <v>101.0</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G106" s="1">
         <v>-1.0</v>
@@ -6822,7 +6836,7 @@
         <v>102.0</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>33</v>
@@ -6855,7 +6869,7 @@
         <v>1.0</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
@@ -6863,7 +6877,7 @@
         <v>103.0</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>33</v>
@@ -6896,7 +6910,7 @@
         <v>1.0</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
@@ -6904,19 +6918,19 @@
         <v>104.0</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G109" s="1">
         <v>-1.0</v>
@@ -6937,7 +6951,7 @@
         <v>1.0</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
@@ -6945,19 +6959,19 @@
         <v>105.0</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G110" s="1">
         <v>-1.0</v>
@@ -6978,7 +6992,7 @@
         <v>1.0</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
@@ -6986,19 +7000,19 @@
         <v>106.0</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G111" s="1">
         <v>-1.0</v>
@@ -7019,7 +7033,7 @@
         <v>1.0</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
@@ -7027,16 +7041,16 @@
         <v>107.0</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>136</v>
@@ -7068,19 +7082,19 @@
         <v>108.0</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="G113" s="1">
         <v>-1.0</v>
@@ -7101,7 +7115,7 @@
         <v>1.0</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
@@ -7109,7 +7123,7 @@
         <v>109.0</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>102</v>
@@ -7150,7 +7164,7 @@
         <v>110.0</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>33</v>
@@ -7183,7 +7197,7 @@
         <v>1.0</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
@@ -7191,19 +7205,19 @@
         <v>111.0</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G116" s="1">
         <v>-1.0</v>
@@ -7232,16 +7246,16 @@
         <v>112.0</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>36</v>
@@ -7265,7 +7279,7 @@
         <v>1.0</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
@@ -7273,16 +7287,16 @@
         <v>114.0</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>52</v>
@@ -7314,19 +7328,19 @@
         <v>115.0</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G119" s="1">
         <v>-1.0</v>
@@ -7347,7 +7361,7 @@
         <v>1.0</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
@@ -7355,7 +7369,7 @@
         <v>116.0</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>33</v>
@@ -7396,19 +7410,19 @@
         <v>117.0</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G121" s="1">
         <v>-1.0</v>
@@ -7429,7 +7443,7 @@
         <v>1.0</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
@@ -7437,7 +7451,7 @@
         <v>118.0</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>33</v>
@@ -7470,7 +7484,7 @@
         <v>1.0</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
@@ -7478,16 +7492,16 @@
         <v>119.0</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>105</v>
@@ -7519,16 +7533,16 @@
         <v>120.0</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>52</v>
@@ -7560,19 +7574,19 @@
         <v>121.0</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="G125" s="1">
         <v>-1.0</v>
@@ -7593,7 +7607,7 @@
         <v>1.0</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
@@ -7601,16 +7615,16 @@
         <v>122.0</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>36</v>
@@ -7642,19 +7656,19 @@
         <v>123.0</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G127" s="1">
         <v>-1.0</v>
@@ -7675,7 +7689,7 @@
         <v>1.0</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
@@ -7683,7 +7697,7 @@
         <v>124.0</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>33</v>
@@ -7716,22 +7730,22 @@
         <v>1.0</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>36</v>
@@ -7751,16 +7765,16 @@
         <v>125.0</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>52</v>
@@ -7792,7 +7806,7 @@
         <v>126.0</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>102</v>
@@ -7833,19 +7847,19 @@
         <v>127.0</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="G132" s="1">
         <v>-1.0</v>
@@ -7874,19 +7888,19 @@
         <v>128.0</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G133" s="1">
         <v>-1.0</v>
@@ -7907,7 +7921,7 @@
         <v>1.0</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
@@ -7915,19 +7929,19 @@
         <v>129.0</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="G134" s="1">
         <v>-1.0</v>
@@ -7948,7 +7962,7 @@
         <v>1.0</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
@@ -7956,16 +7970,16 @@
         <v>130.0</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>211</v>
@@ -7989,7 +8003,7 @@
         <v>1.0</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
@@ -7997,19 +8011,19 @@
         <v>131.0</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G136" s="1">
         <v>-1.0</v>
@@ -8038,19 +8052,19 @@
         <v>132.0</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G137" s="1">
         <v>-1.0</v>
@@ -8071,7 +8085,7 @@
         <v>1.0</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -8079,19 +8093,19 @@
         <v>133.0</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G138" s="1">
         <v>-1.0</v>
@@ -8120,16 +8134,16 @@
         <v>134.0</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>192</v>
@@ -8153,7 +8167,7 @@
         <v>1.0</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
@@ -8161,16 +8175,16 @@
         <v>135.0</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>192</v>
@@ -8194,7 +8208,7 @@
         <v>1.0</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
@@ -8202,19 +8216,19 @@
         <v>136.0</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G141" s="1">
         <v>-1.0</v>
@@ -8235,7 +8249,7 @@
         <v>1.0</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
@@ -8243,19 +8257,19 @@
         <v>137.0</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G142" s="1">
         <v>-1.0</v>
@@ -8276,7 +8290,7 @@
         <v>1.0</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
@@ -8284,7 +8298,7 @@
         <v>138.0</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>33</v>
@@ -8325,19 +8339,19 @@
         <v>139.0</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G144" s="1">
         <v>-1.0</v>
@@ -8366,19 +8380,19 @@
         <v>141.0</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G145" s="1">
         <v>-1.0</v>
@@ -8399,7 +8413,7 @@
         <v>1.0</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
@@ -8407,19 +8421,19 @@
         <v>142.0</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G146" s="1">
         <v>-1.0</v>
@@ -8440,7 +8454,7 @@
         <v>1.0</v>
       </c>
       <c r="M146" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
@@ -8448,16 +8462,16 @@
         <v>143.0</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>105</v>
@@ -8481,7 +8495,7 @@
         <v>1.0</v>
       </c>
       <c r="M147" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
@@ -8489,19 +8503,19 @@
         <v>144.0</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G148" s="1">
         <v>-1.0</v>
@@ -8530,7 +8544,7 @@
         <v>145.0</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>45</v>
@@ -8571,7 +8585,7 @@
         <v>146.0</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>45</v>
@@ -8612,7 +8626,7 @@
         <v>147.0</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>45</v>
@@ -8653,7 +8667,7 @@
         <v>148.0</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>33</v>
@@ -8686,7 +8700,7 @@
         <v>1.0</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
@@ -8694,16 +8708,16 @@
         <v>149.0</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>42</v>
@@ -8733,19 +8747,19 @@
         <v>150.0</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G154" s="1">
         <v>-1.0</v>
@@ -8774,7 +8788,7 @@
         <v>151.0</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>102</v>
@@ -8815,19 +8829,19 @@
         <v>152.0</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G156" s="1">
         <v>-1.0</v>
@@ -8848,7 +8862,7 @@
         <v>1.0</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
@@ -8856,16 +8870,16 @@
         <v>153.0</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>36</v>
@@ -8889,7 +8903,7 @@
         <v>1.0</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
@@ -8897,16 +8911,16 @@
         <v>154.0</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>36</v>
@@ -8938,16 +8952,16 @@
         <v>155.0</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>36</v>
@@ -8971,7 +8985,7 @@
         <v>1.0</v>
       </c>
       <c r="M159" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
@@ -8979,7 +8993,7 @@
         <v>156.0</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C160" s="1" t="s">
         <v>33</v>
@@ -9012,7 +9026,7 @@
         <v>1.0</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
@@ -9020,7 +9034,7 @@
         <v>157.0</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>33</v>
@@ -9053,7 +9067,7 @@
         <v>1.0</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
@@ -9061,16 +9075,16 @@
         <v>158.0</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>36</v>
@@ -9102,16 +9116,16 @@
         <v>159.0</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>36</v>
@@ -9135,7 +9149,7 @@
         <v>1.0</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="164" ht="15.75" customHeight="1">
@@ -9143,19 +9157,19 @@
         <v>160.0</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G164" s="1">
         <v>-1.0</v>
@@ -9176,7 +9190,7 @@
         <v>1.0</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="165" ht="15.75" customHeight="1">
@@ -9184,19 +9198,19 @@
         <v>161.0</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G165" s="1">
         <v>-1.0</v>
@@ -9225,7 +9239,7 @@
         <v>162.0</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>33</v>
@@ -9264,16 +9278,16 @@
         <v>163.0</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F167" s="1" t="s">
         <v>36</v>
@@ -9297,7 +9311,7 @@
         <v>1.0</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="168" ht="15.75" customHeight="1">
@@ -9305,19 +9319,19 @@
         <v>164.0</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G168" s="1"/>
       <c r="H168" s="1">
@@ -9344,16 +9358,16 @@
         <v>165.0</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>231</v>
@@ -9377,7 +9391,7 @@
         <v>1.0</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="170" ht="15.75" customHeight="1">
@@ -9385,16 +9399,16 @@
         <v>166.0</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F170" s="1" t="s">
         <v>36</v>
@@ -9418,7 +9432,7 @@
         <v>1.0</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="171" ht="15.75" customHeight="1">
@@ -9426,19 +9440,19 @@
         <v>167.0</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G171" s="1">
         <v>-1.0</v>
@@ -9459,7 +9473,7 @@
         <v>1.0</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="172" ht="15.75" customHeight="1">
@@ -9467,19 +9481,19 @@
         <v>168.0</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G172" s="1">
         <v>-1.0</v>
@@ -9500,7 +9514,7 @@
         <v>1.0</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
@@ -9508,16 +9522,16 @@
         <v>169.0</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>231</v>
@@ -9549,16 +9563,16 @@
         <v>170.0</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="F174" s="1" t="s">
         <v>36</v>
@@ -9590,19 +9604,19 @@
         <v>171.0</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G175" s="1">
         <v>-1.0</v>
@@ -9623,7 +9637,7 @@
         <v>1.0</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="176" ht="15.75" customHeight="1">
@@ -9631,16 +9645,16 @@
         <v>172.0</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="F176" s="1" t="s">
         <v>36</v>
@@ -9664,7 +9678,7 @@
         <v>1.0</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="177" ht="15.75" customHeight="1">
@@ -9672,19 +9686,19 @@
         <v>173.0</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G177" s="1">
         <v>-1.0</v>
@@ -9705,7 +9719,7 @@
         <v>1.0</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="178" ht="15.75" customHeight="1">
@@ -9713,7 +9727,7 @@
         <v>176.0</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>102</v>
@@ -9754,16 +9768,16 @@
         <v>177.0</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F179" s="1" t="s">
         <v>36</v>
@@ -9795,19 +9809,19 @@
         <v>178.0</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G180" s="1">
         <v>-1.0</v>
@@ -9836,19 +9850,19 @@
         <v>179.0</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="G181" s="1">
         <v>-1.0</v>
@@ -9869,7 +9883,7 @@
         <v>1.0</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="182" ht="15.75" customHeight="1">
@@ -9877,19 +9891,19 @@
         <v>180.0</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G182" s="1">
         <v>-1.0</v>
@@ -9910,7 +9924,7 @@
         <v>1.0</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
@@ -9918,19 +9932,19 @@
         <v>181.0</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="G183" s="1">
         <v>-1.0</v>
@@ -9951,7 +9965,7 @@
         <v>1.0</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="184" ht="15.75" customHeight="1">
@@ -9959,19 +9973,19 @@
         <v>182.0</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G184" s="1">
         <v>-1.0</v>
@@ -9992,7 +10006,7 @@
         <v>1.0</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="185" ht="15.75" customHeight="1">
@@ -10000,16 +10014,16 @@
         <v>183.0</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F185" s="1" t="s">
         <v>76</v>
@@ -10041,19 +10055,19 @@
         <v>184.0</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G186" s="1">
         <v>-1.0</v>
@@ -10082,7 +10096,7 @@
         <v>185.0</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>222</v>
@@ -10123,19 +10137,19 @@
         <v>186.0</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G188" s="1">
         <v>-1.0</v>
@@ -10164,19 +10178,19 @@
         <v>187.0</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="G189" s="1">
         <v>-1.0</v>
@@ -10197,7 +10211,7 @@
         <v>1.0</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="190" ht="15.75" customHeight="1">
@@ -10205,16 +10219,16 @@
         <v>188.0</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F190" s="1" t="s">
         <v>192</v>
@@ -10246,19 +10260,19 @@
         <v>189.0</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G191" s="1">
         <v>-1.0</v>
@@ -10279,7 +10293,7 @@
         <v>1.0</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="192" ht="15.75" customHeight="1">
@@ -10287,16 +10301,16 @@
         <v>191.0</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F192" s="1" t="s">
         <v>76</v>
@@ -10328,19 +10342,19 @@
         <v>192.0</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="G193" s="1">
         <v>-1.0</v>
@@ -10369,16 +10383,16 @@
         <v>193.0</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>36</v>
@@ -10402,7 +10416,7 @@
         <v>1.0</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="195" ht="15.75" customHeight="1"/>
